--- a/counselors/documents/schoolData.xlsx
+++ b/counselors/documents/schoolData.xlsx
@@ -916,7 +916,7 @@
   <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
